--- a/LIST OF URL.xlsx
+++ b/LIST OF URL.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
